--- a/CheckBuildJenkin/src/com/ert/resource/DataTemplate.xlsx
+++ b/CheckBuildJenkin/src/com/ert/resource/DataTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhdo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CheckBuildJenkin\CheckBuildJenkin\src\com\ert\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Jenkin Build Path</t>
   </si>
@@ -35,43 +35,31 @@
     <t>isDownloaded</t>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>InComplete</t>
-  </si>
-  <si>
     <t>isExecuted</t>
   </si>
   <si>
     <t>isBadBuild</t>
   </si>
   <si>
-    <t>Yes</t>
+    <t>outputPath</t>
+  </si>
+  <si>
+    <t>Local Path</t>
+  </si>
+  <si>
+    <t>d:/TestBuild/</t>
+  </si>
+  <si>
+    <t>StudyName</t>
+  </si>
+  <si>
+    <t>Amgen-20120178-NP</t>
+  </si>
+  <si>
+    <t>Unity-ubct-oa-p1-0001-NP</t>
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>outputPath</t>
-  </si>
-  <si>
-    <t>Local Path</t>
-  </si>
-  <si>
-    <t>d:/TestBuild/</t>
-  </si>
-  <si>
-    <t>StudyName</t>
-  </si>
-  <si>
-    <t>Amgen-20120178-NP</t>
-  </si>
-  <si>
-    <t>Unity-ubct-oa-p1-0001-NP</t>
   </si>
 </sst>
 </file>
@@ -436,14 +424,14 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="111.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1" collapsed="1"/>
@@ -458,22 +446,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -481,42 +469,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
